--- a/database/bf_KNN/orb_bf_knn.xlsx
+++ b/database/bf_KNN/orb_bf_knn.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
   <si>
     <t>image type</t>
   </si>
@@ -156,9 +156,6 @@
     <t>orb_bf_knn.csv</t>
   </si>
   <si>
-    <t>condame_blurred</t>
-  </si>
-  <si>
     <t>condame_lumino</t>
   </si>
   <si>
@@ -172,6 +169,24 @@
   </si>
   <si>
     <t>new\memory_blurred.jpg</t>
+  </si>
+  <si>
+    <t>like_black_45</t>
+  </si>
+  <si>
+    <t>like_black_cropped</t>
+  </si>
+  <si>
+    <t>memory_blurred</t>
+  </si>
+  <si>
+    <t>Colonne13</t>
+  </si>
+  <si>
+    <t>Colonne14</t>
+  </si>
+  <si>
+    <t>Colonne15</t>
   </si>
 </sst>
 </file>
@@ -245,17 +260,21 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ORB_bf_knn" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ORB_bf_knn_add" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ORB_bf_knn" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="F6:Q72" totalsRowShown="0">
-  <autoFilter ref="F6:Q72"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="F6:T72" totalsRowShown="0">
+  <autoFilter ref="F6:T72">
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
+  </autoFilter>
+  <tableColumns count="15">
     <tableColumn id="1" name="Colonne1"/>
     <tableColumn id="2" name="Colonne2"/>
     <tableColumn id="3" name="Colonne3"/>
@@ -268,6 +287,9 @@
     <tableColumn id="10" name="Colonne10"/>
     <tableColumn id="11" name="Colonne11"/>
     <tableColumn id="12" name="Colonne12"/>
+    <tableColumn id="13" name="Colonne13"/>
+    <tableColumn id="14" name="Colonne14"/>
+    <tableColumn id="15" name="Colonne15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="T47" sqref="J46:T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -578,7 +600,7 @@
     <col min="15" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -586,7 +608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -597,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -647,8 +669,17 @@
       <c r="Q6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -695,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -742,7 +773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -753,43 +784,43 @@
         <v>1.20000839233398E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O9">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="P9">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -800,43 +831,43 @@
         <v>2.4999856948852501E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Q10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -847,43 +878,43 @@
         <v>1.20000839233398E-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G11">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="O11">
+        <v>63</v>
+      </c>
+      <c r="P11">
         <v>79</v>
       </c>
-      <c r="P11">
-        <v>86</v>
-      </c>
       <c r="Q11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -894,43 +925,43 @@
         <v>1.5000104904174799E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="O12">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="P12">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Q12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -941,7 +972,7 @@
         <v>3.0000209808349601E-3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -956,28 +987,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P13">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>1.5999794006347601E-2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1040,22 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>10</v>
       </c>
       <c r="O14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1050,30 +1081,30 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P15">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="Q15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>22</v>
@@ -1082,7 +1113,7 @@
         <v>3.1999826431299998E-2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P16">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -1133,7 +1164,7 @@
         <v>3.2999992370605401E-3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1160,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -1179,11 +1210,41 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>23</v>
+      </c>
+      <c r="P18">
+        <v>48</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1196,8 +1257,41 @@
       <c r="C19">
         <v>1.6000032424926699E-2</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1210,6 +1304,42 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>42</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
@@ -1221,38 +1351,41 @@
       <c r="C21">
         <v>7.9998970031738195E-3</v>
       </c>
-      <c r="F21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>46</v>
+      </c>
+      <c r="N21">
+        <v>56</v>
+      </c>
+      <c r="O21">
+        <v>66</v>
+      </c>
+      <c r="P21">
+        <v>80</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1265,39 +1398,6 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <v>1.5199995040893524E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3.2999992370605401E-3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.50999546051025E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.6100025177001924E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>9.2000246047973418E-3</v>
-      </c>
-      <c r="K22" s="2">
-        <v>8.800005912780736E-3</v>
-      </c>
-      <c r="L22" s="2">
-        <v>8.7999820709228505E-3</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1.7499971389770479E-2</v>
-      </c>
-      <c r="N22" s="2">
-        <v>8.6000442504882511E-3</v>
-      </c>
-      <c r="O22" s="2">
-        <v>6.300020217895495E-3</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1.7599987983703588E-2</v>
-      </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
@@ -1345,7 +1445,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
         <v>22</v>
@@ -1412,8 +1512,41 @@
       <c r="C32">
         <v>1.7999887466430602E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1423,8 +1556,41 @@
       <c r="C33">
         <v>2.60000228881835E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="2">
+        <v>1.5199995040893524E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3.2999992370605401E-3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.50999546051025E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.6100025177001924E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9.2000246047973418E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>8.800005912780736E-3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>8.7999820709228505E-3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.7499971389770479E-2</v>
+      </c>
+      <c r="N33" s="2">
+        <v>8.6000442504882511E-3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>6.300020217895495E-3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1.7599987983703588E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1601,7 @@
         <v>1.49998664855957E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1456,8 +1622,53 @@
       <c r="C36">
         <v>2.5000095367431599E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1467,10 +1678,55 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>54</v>
+      </c>
+      <c r="J37">
+        <v>22</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>22</v>
@@ -1478,8 +1734,53 @@
       <c r="C38" s="3">
         <v>3.1999826431299998E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>57</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1794,53 @@
         <f>AVERAGE(C39:C48)</f>
         <v>1.6100025177001924E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1850,53 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>62</v>
+      </c>
+      <c r="J40">
+        <v>34</v>
+      </c>
+      <c r="K40">
+        <v>19</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1515,8 +1906,53 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>65</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1526,8 +1962,53 @@
       <c r="C42">
         <v>2.9999971389770501E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>67</v>
+      </c>
+      <c r="J42">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1537,8 +2018,53 @@
       <c r="C43">
         <v>1.20000839233398E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="K43">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1548,8 +2074,53 @@
       <c r="C44">
         <v>4.9999952316284103E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>74</v>
+      </c>
+      <c r="J44">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>46</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1559,8 +2130,53 @@
       <c r="C45">
         <v>1.5000104904174799E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>79</v>
+      </c>
+      <c r="J45">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>59</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>18</v>
+      </c>
+      <c r="O45">
+        <v>21</v>
+      </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <v>23</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>17</v>
+      </c>
+      <c r="T45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1570,8 +2186,53 @@
       <c r="C46">
         <v>3.9999485015869097E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>86</v>
+      </c>
+      <c r="J46">
+        <v>79</v>
+      </c>
+      <c r="K46">
+        <v>76</v>
+      </c>
+      <c r="L46">
+        <v>48</v>
+      </c>
+      <c r="M46">
+        <v>51</v>
+      </c>
+      <c r="N46">
+        <v>46</v>
+      </c>
+      <c r="O46">
+        <v>46</v>
+      </c>
+      <c r="P46">
+        <v>29</v>
+      </c>
+      <c r="Q46">
+        <v>48</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>42</v>
+      </c>
+      <c r="T46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1581,8 +2242,53 @@
       <c r="C47">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+      <c r="S47">
+        <v>100</v>
+      </c>
+      <c r="T47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +2301,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3">
         <v>22</v>
@@ -1720,7 +2426,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="3">
         <v>22</v>
@@ -1845,7 +2551,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="3">
         <v>22</v>
@@ -2095,7 +2801,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="3">
         <v>22</v>
@@ -2220,7 +2926,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="3">
         <v>22</v>
@@ -2264,7 +2970,7 @@
         <v>1.5000104904174799E-2</v>
       </c>
       <c r="H106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I106">
         <v>22</v>
@@ -2284,7 +2990,7 @@
         <v>6.0000419616699201E-3</v>
       </c>
       <c r="H107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -2304,7 +3010,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
       <c r="H108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -2324,7 +3030,7 @@
         <v>9.9999904632568307E-3</v>
       </c>
       <c r="H109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I109">
         <v>9</v>
@@ -2364,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I111">
         <v>25</v>
@@ -2384,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -2404,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -2424,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I114">
         <v>13</v>
@@ -2435,7 +3141,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" s="3">
         <v>22</v>
@@ -2468,7 +3174,7 @@
         <v>1.7599987983703588E-2</v>
       </c>
       <c r="H116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I116">
         <v>30</v>
@@ -2488,7 +3194,7 @@
         <v>2.60000228881835E-2</v>
       </c>
       <c r="H117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -2508,7 +3214,7 @@
         <v>1.5000104904174799E-2</v>
       </c>
       <c r="H118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -2528,7 +3234,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
       <c r="H119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I119">
         <v>16</v>
@@ -2568,7 +3274,7 @@
         <v>1.49998664855957E-2</v>
       </c>
       <c r="H121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I121">
         <v>34</v>
@@ -2588,7 +3294,7 @@
         <v>1.5000104904174799E-2</v>
       </c>
       <c r="H122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -2608,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -2628,7 +3334,7 @@
         <v>6.2999963760375893E-2</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I124">
         <v>23</v>
@@ -2659,7 +3365,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" s="3">
         <v>22</v>
@@ -2668,7 +3374,7 @@
         <v>3.1999826431299998E-2</v>
       </c>
       <c r="H126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I126">
         <v>37</v>
@@ -2679,7 +3385,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="H127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -2690,7 +3396,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="H128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -2701,7 +3407,7 @@
     </row>
     <row r="129" spans="8:10">
       <c r="H129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I129">
         <v>31</v>
@@ -2723,7 +3429,7 @@
     </row>
     <row r="131" spans="8:10">
       <c r="H131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I131">
         <v>43</v>
@@ -2734,7 +3440,7 @@
     </row>
     <row r="132" spans="8:10">
       <c r="H132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -2745,7 +3451,7 @@
     </row>
     <row r="133" spans="8:10">
       <c r="H133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -2756,7 +3462,7 @@
     </row>
     <row r="134" spans="8:10">
       <c r="H134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I134">
         <v>38</v>
@@ -2778,7 +3484,7 @@
     </row>
     <row r="136" spans="8:10">
       <c r="H136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I136">
         <v>47</v>
@@ -2789,7 +3495,7 @@
     </row>
     <row r="137" spans="8:10">
       <c r="H137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I137">
         <v>5</v>
@@ -2800,7 +3506,7 @@
     </row>
     <row r="138" spans="8:10">
       <c r="H138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I138">
         <v>2</v>
@@ -2811,7 +3517,7 @@
     </row>
     <row r="139" spans="8:10">
       <c r="H139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I139">
         <v>46</v>
@@ -2833,7 +3539,7 @@
     </row>
     <row r="141" spans="8:10">
       <c r="H141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I141">
         <v>53</v>
@@ -2844,7 +3550,7 @@
     </row>
     <row r="142" spans="8:10">
       <c r="H142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I142">
         <v>9</v>
@@ -2855,7 +3561,7 @@
     </row>
     <row r="143" spans="8:10">
       <c r="H143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I143">
         <v>6</v>
@@ -2866,7 +3572,7 @@
     </row>
     <row r="144" spans="8:10">
       <c r="H144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I144">
         <v>56</v>
@@ -2888,7 +3594,7 @@
     </row>
     <row r="146" spans="8:10">
       <c r="H146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I146">
         <v>63</v>
@@ -2899,7 +3605,7 @@
     </row>
     <row r="147" spans="8:10">
       <c r="H147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I147">
         <v>23</v>
@@ -2910,7 +3616,7 @@
     </row>
     <row r="148" spans="8:10">
       <c r="H148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I148">
         <v>17</v>
@@ -2921,7 +3627,7 @@
     </row>
     <row r="149" spans="8:10">
       <c r="H149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I149">
         <v>66</v>
@@ -2943,7 +3649,7 @@
     </row>
     <row r="151" spans="8:10">
       <c r="H151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I151">
         <v>79</v>
@@ -2954,7 +3660,7 @@
     </row>
     <row r="152" spans="8:10">
       <c r="H152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I152">
         <v>48</v>
@@ -2965,7 +3671,7 @@
     </row>
     <row r="153" spans="8:10">
       <c r="H153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I153">
         <v>42</v>
@@ -2976,7 +3682,7 @@
     </row>
     <row r="154" spans="8:10">
       <c r="H154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I154">
         <v>80</v>
@@ -2998,7 +3704,7 @@
     </row>
     <row r="156" spans="8:10">
       <c r="H156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I156">
         <v>100</v>
@@ -3009,7 +3715,7 @@
     </row>
     <row r="157" spans="8:10">
       <c r="H157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I157">
         <v>100</v>
@@ -3020,7 +3726,7 @@
     </row>
     <row r="158" spans="8:10">
       <c r="H158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I158">
         <v>100</v>
@@ -3031,7 +3737,7 @@
     </row>
     <row r="159" spans="8:10">
       <c r="H159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I159">
         <v>100</v>
